--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Facebook Login Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Facebook Login Page.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Testcase" sheetId="1" r:id="rId1"/>
-    <sheet name="HLR" sheetId="2" r:id="rId2"/>
+    <sheet name="HLR" sheetId="2" r:id="rId1"/>
+    <sheet name="Testcase" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -618,6 +618,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -909,159 +1064,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="10">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>7</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Facebook Login Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Facebook Login Page.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>Facebook Login Page</t>
   </si>
@@ -254,12 +254,210 @@
   <si>
     <t>While user click on create a page, a new screen open, where user can create a page of a business or brand and community or public figure.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Check English UK</t>
+  </si>
+  <si>
+    <t>Check  ગુજરાતી</t>
+  </si>
+  <si>
+    <t>Check हिन्दी</t>
+  </si>
+  <si>
+    <t>By clicking on English UK , Language is changed to English UK.</t>
+  </si>
+  <si>
+    <t>By clicking on  ગુજરાતી , Language is changed to  ગુજરાતી.</t>
+  </si>
+  <si>
+    <t>By clicking on हिन्दी , Language is changed to हिन्दी.</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t>Facebook Lite</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Places</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>Meta Pay</t>
+  </si>
+  <si>
+    <t>Meta Store</t>
+  </si>
+  <si>
+    <t>Meta Quest</t>
+  </si>
+  <si>
+    <t>Imagine with Meta AI</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Fundraisers</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Voting Information Centre</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Privacy Centre</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Create ad</t>
+  </si>
+  <si>
+    <t>Create Page</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>AdChoices</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Contact uploading and non-users</t>
+  </si>
+  <si>
+    <t>while user click on log in then open a new page to login</t>
+  </si>
+  <si>
+    <t>while user click on sign up , a new form opened while user can create a new account in facebook</t>
+  </si>
+  <si>
+    <t>while user click on messenger  then open a new page of messenger</t>
+  </si>
+  <si>
+    <t>while user click on facebook lite then user should redirected on new page of facebook lite</t>
+  </si>
+  <si>
+    <t>while user click on video then user can see vidoes</t>
+  </si>
+  <si>
+    <t>while user click on places then use can see places where facebook used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while user click on games  then user can see the all type ofgames </t>
+  </si>
+  <si>
+    <t>while user click on marketplace  then user can see different market places of facebook</t>
+  </si>
+  <si>
+    <t>while user click on meta pay  then open a new page of meta pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while user click on meta store then open a new page of meta store </t>
+  </si>
+  <si>
+    <t>while user click on meta quest then opan a new tab of meta quest</t>
+  </si>
+  <si>
+    <t>while user click on imagine with meta Ai ,user can see the images with AI.</t>
+  </si>
+  <si>
+    <t>while user click on threads, user should reach on threads pade.</t>
+  </si>
+  <si>
+    <t>while user click on instagram, user shoud reach on instagram page</t>
+  </si>
+  <si>
+    <t>while user click on fundraisers, user should reach on fundraisers</t>
+  </si>
+  <si>
+    <t>while user click on services ,user reach on facebook service directory</t>
+  </si>
+  <si>
+    <t>while user click on voting information centre , user should reach on new page of information center</t>
+  </si>
+  <si>
+    <t>while user click on privacy policy,user can see the privacy policy</t>
+  </si>
+  <si>
+    <t>while user click on privacy center, user can reach on the privacy center page.</t>
+  </si>
+  <si>
+    <t>while user click on groups , user can connect with people who share your intrests.</t>
+  </si>
+  <si>
+    <t>while user click on about , user should see all info about meta.</t>
+  </si>
+  <si>
+    <t>while user click on create ad , user should create ad</t>
+  </si>
+  <si>
+    <t>while user click on create page, open a new page where user can create apage</t>
+  </si>
+  <si>
+    <t>while user click on developers wher users should build a simple whats app flow</t>
+  </si>
+  <si>
+    <t>while user click on careers, user should reach on meta career page</t>
+  </si>
+  <si>
+    <t>while user click on cookies, user should see the privacy policy</t>
+  </si>
+  <si>
+    <t>while user click on Adchoices, user should reach on help center</t>
+  </si>
+  <si>
+    <t>while user click on terms, user can see terms and policies.</t>
+  </si>
+  <si>
+    <t>while user click on help, user should reach on help center</t>
+  </si>
+  <si>
+    <t>while user click on contact uploading and non-users user redirected to help center</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,23 +474,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -300,18 +526,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,10 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -338,9 +574,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,86 +884,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>45378</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
@@ -705,10 +971,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C10" t="s">
@@ -716,67 +982,428 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>15</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>17</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>18</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>19</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>20</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>21</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>22</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>24</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>25</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>26</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>27</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>28</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>29</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>30</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>31</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>32</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>33</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>34</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>36</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>37</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>38</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>39</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" tooltip="Gujarati" display="https://gu-in.facebook.com/"/>
+    <hyperlink ref="B17" r:id="rId2" tooltip="Hindi" display="https://hi-in.facebook.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,271 +1419,264 @@
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I9" s="11" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Facebook Login Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Facebook Login Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="2" r:id="rId1"/>
@@ -886,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
@@ -1448,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
